--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43739,6 +43739,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43774,6 +43774,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43846,6 +43846,41 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43881,6 +43881,41 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43916,6 +43916,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43953,6 +43953,43 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43990,6 +43990,41 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>11300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44025,6 +44025,43 @@
         <v>11300</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44062,6 +44062,80 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44136,6 +44136,80 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44210,6 +44210,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44247,6 +44247,41 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>5900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44282,6 +44282,76 @@
         <v>5900</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44352,6 +44352,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44387,6 +44387,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1511"/>
+  <dimension ref="A1:I1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55239,6 +55239,41 @@
         </is>
       </c>
     </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1512" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1512"/>
+  <dimension ref="A1:I1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55274,6 +55274,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1513" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1513"/>
+  <dimension ref="A1:I1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55309,6 +55309,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1514" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>3700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1514"/>
+  <dimension ref="A1:I1515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55344,6 +55344,41 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1515"/>
+  <dimension ref="A1:I1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55379,6 +55379,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1516" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1516"/>
+  <dimension ref="A1:I1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55414,6 +55414,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1517" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1517"/>
+  <dimension ref="A1:I1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55449,6 +55449,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1518" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1518"/>
+  <dimension ref="A1:I1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55484,6 +55484,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1519" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>43300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1519"/>
+  <dimension ref="A1:I1520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55519,6 +55519,43 @@
         <v>43300</v>
       </c>
     </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1520" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1520" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1520"/>
+  <dimension ref="A1:I1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55556,6 +55556,41 @@
         </is>
       </c>
     </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1521"/>
+  <dimension ref="A1:I1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55591,6 +55591,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1522"/>
+  <dimension ref="A1:I1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55628,6 +55628,43 @@
         </is>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1523"/>
+  <dimension ref="A1:I1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55665,6 +55665,41 @@
         </is>
       </c>
     </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1524"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55700,6 +55700,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7692.xlsx
+++ b/data/7692.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1525"/>
+  <dimension ref="A1:I1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55737,6 +55737,43 @@
         </is>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>WIDETEC</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
